--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H2">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>0.08324003815111111</v>
+        <v>0.017772254836</v>
       </c>
       <c r="R2">
-        <v>0.74916034336</v>
+        <v>0.159950293524</v>
       </c>
       <c r="S2">
-        <v>0.001002064460318647</v>
+        <v>0.000224145009643676</v>
       </c>
       <c r="T2">
-        <v>0.001002064460318647</v>
+        <v>0.000224145009643676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H3">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I3">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J3">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>5.109020708792</v>
+        <v>3.325537976124</v>
       </c>
       <c r="R3">
-        <v>45.981186379128</v>
+        <v>29.929841785116</v>
       </c>
       <c r="S3">
-        <v>0.06150367290820507</v>
+        <v>0.04194193413313065</v>
       </c>
       <c r="T3">
-        <v>0.06150367290820507</v>
+        <v>0.04194193413313064</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H4">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I4">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J4">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>1.433742556849778</v>
+        <v>0.9698162840386668</v>
       </c>
       <c r="R4">
-        <v>12.903683011648</v>
+        <v>8.728346556348001</v>
       </c>
       <c r="S4">
-        <v>0.0172597525587075</v>
+        <v>0.01223139564137414</v>
       </c>
       <c r="T4">
-        <v>0.0172597525587075</v>
+        <v>0.01223139564137414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.189831</v>
       </c>
       <c r="I5">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J5">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>0.5184120107688889</v>
+        <v>0.1700439041443333</v>
       </c>
       <c r="R5">
-        <v>4.66570809692</v>
+        <v>1.530395137299</v>
       </c>
       <c r="S5">
-        <v>0.006240773831107347</v>
+        <v>0.002144606460237903</v>
       </c>
       <c r="T5">
-        <v>0.006240773831107347</v>
+        <v>0.002144606460237903</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.189831</v>
       </c>
       <c r="I6">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J6">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>31.818554598649</v>
+        <v>31.81855459864899</v>
       </c>
       <c r="R6">
         <v>286.366991387841</v>
       </c>
       <c r="S6">
-        <v>0.3830397420545755</v>
+        <v>0.4012979947212597</v>
       </c>
       <c r="T6">
-        <v>0.3830397420545755</v>
+        <v>0.4012979947212596</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.189831</v>
       </c>
       <c r="I7">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J7">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>8.929228990406223</v>
+        <v>9.279145992585891</v>
       </c>
       <c r="R7">
-        <v>80.36306091365601</v>
+        <v>83.51231393327301</v>
       </c>
       <c r="S7">
-        <v>0.1074922985149256</v>
+        <v>0.1170292845328882</v>
       </c>
       <c r="T7">
-        <v>0.1074922985149256</v>
+        <v>0.1170292845328881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H8">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I8">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J8">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>0.4419074932711111</v>
+        <v>0.1388948677083333</v>
       </c>
       <c r="R8">
-        <v>3.977167439440001</v>
+        <v>1.250053809375</v>
       </c>
       <c r="S8">
-        <v>0.005319793258042511</v>
+        <v>0.001751752478750101</v>
       </c>
       <c r="T8">
-        <v>0.00531979325804251</v>
+        <v>0.001751752478750101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H9">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I9">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J9">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>27.12293968911801</v>
+        <v>25.989958028125</v>
       </c>
       <c r="R9">
-        <v>244.106457202062</v>
+        <v>233.909622253125</v>
       </c>
       <c r="S9">
-        <v>0.3265127518621694</v>
+        <v>0.3277872980446166</v>
       </c>
       <c r="T9">
-        <v>0.3265127518621693</v>
+        <v>0.3277872980446166</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H10">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I10">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J10">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>7.611500347265779</v>
+        <v>7.579370525347223</v>
       </c>
       <c r="R10">
-        <v>68.50350312539202</v>
+        <v>68.21433472812501</v>
       </c>
       <c r="S10">
-        <v>0.09162915055194829</v>
+        <v>0.09559158897809913</v>
       </c>
       <c r="T10">
-        <v>0.09162915055194829</v>
+        <v>0.09559158897809912</v>
       </c>
     </row>
   </sheetData>
